--- a/Document/시스템 기획서/미션 시스템_강동민.xlsx
+++ b/Document/시스템 기획서/미션 시스템_강동민.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\400-108\Desktop\MondayClass\Document\강동민\기획서\시스템 기획서\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\400-108\Desktop\MondayClass\Document\시스템 기획서\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="343">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="336">
   <si>
     <t>작성자</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -935,10 +935,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>적용 시간</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>공격력</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -947,14 +943,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>이동속도</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>공격속도</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>변신 회복율</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -963,46 +951,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>변신 회복율 + 2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>공격속도 + 10%</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>이동속도 + 10%</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>공격력 + 100</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>방어력 + 20</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1~3 스테이지</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1~3스테이지</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1~2스테이지</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1~2스테이지</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1스테이지</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>등장 확률</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1059,18 +1007,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>적용 시간</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>즉시</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>즉시</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>따로 시간은 없고 보상받을때 한번 적용</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1400,6 +1340,38 @@
   </si>
   <si>
     <t>수치를 몇 스테이지 동안 지속해서 올려주는 보상</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.미션 진행 순서도</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>강동민</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬 쿨타임</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>미션 진행 순서도, 속도 보상 내용 제거, 수정</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격력 + 2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>방어력 + 2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>전체 쿨타임 -2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>변신 회복율 + 1</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2699,6 +2671,55 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>117</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>2549169</xdr:colOff>
+      <xdr:row>139</xdr:row>
+      <xdr:rowOff>22184</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="그림 19"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="457200" y="24745950"/>
+          <a:ext cx="10197744" cy="4584659"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3115,6 +3136,55 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>157</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>672744</xdr:colOff>
+      <xdr:row>179</xdr:row>
+      <xdr:rowOff>94302</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="그림 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="421821" y="34194750"/>
+          <a:ext cx="10197744" cy="4584659"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3463,7 +3533,7 @@
   <dimension ref="B2:K32"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:E24"/>
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3476,7 +3546,7 @@
   <sheetData>
     <row r="2" spans="2:11" ht="31.5" x14ac:dyDescent="0.3">
       <c r="B2" s="9" t="s">
-        <v>318</v>
+        <v>303</v>
       </c>
       <c r="I2" s="9" t="s">
         <v>19</v>
@@ -3496,7 +3566,7 @@
         <v>3</v>
       </c>
       <c r="I4" s="10" t="s">
-        <v>296</v>
+        <v>281</v>
       </c>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.3">
@@ -3527,7 +3597,7 @@
       </c>
       <c r="E6" s="2"/>
       <c r="I6" s="29" t="s">
-        <v>308</v>
+        <v>293</v>
       </c>
       <c r="J6" s="29"/>
     </row>
@@ -3539,21 +3609,27 @@
         <v>53</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>313</v>
+        <v>298</v>
       </c>
       <c r="E7" s="2"/>
       <c r="I7" s="29" t="s">
-        <v>309</v>
+        <v>294</v>
       </c>
       <c r="J7" s="29"/>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
+      <c r="B8" s="4">
+        <v>43669</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>331</v>
+      </c>
       <c r="E8" s="2"/>
       <c r="I8" s="29" t="s">
-        <v>310</v>
+        <v>295</v>
       </c>
       <c r="J8" s="29"/>
     </row>
@@ -3563,7 +3639,7 @@
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="I9" s="29" t="s">
-        <v>311</v>
+        <v>296</v>
       </c>
       <c r="J9" s="29"/>
     </row>
@@ -3573,7 +3649,7 @@
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="I10" s="30" t="s">
-        <v>312</v>
+        <v>297</v>
       </c>
       <c r="J10" s="30"/>
     </row>
@@ -3613,7 +3689,7 @@
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="I14" s="26" t="s">
-        <v>297</v>
+        <v>282</v>
       </c>
       <c r="J14" s="26"/>
       <c r="K14" s="26"/>
@@ -3624,7 +3700,7 @@
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="I15" s="26" t="s">
-        <v>298</v>
+        <v>283</v>
       </c>
       <c r="J15" s="26"/>
       <c r="K15" s="26"/>
@@ -3635,7 +3711,7 @@
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="I16" s="26" t="s">
-        <v>299</v>
+        <v>284</v>
       </c>
       <c r="J16" s="26"/>
       <c r="K16" s="26"/>
@@ -3646,7 +3722,7 @@
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="I17" s="26" t="s">
-        <v>300</v>
+        <v>285</v>
       </c>
       <c r="J17" s="26"/>
       <c r="K17" s="26"/>
@@ -3657,7 +3733,7 @@
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="I18" s="8" t="s">
-        <v>301</v>
+        <v>286</v>
       </c>
       <c r="J18" s="26"/>
       <c r="K18" s="26"/>
@@ -3668,7 +3744,7 @@
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="I19" s="29" t="s">
-        <v>304</v>
+        <v>289</v>
       </c>
       <c r="J19" s="29"/>
       <c r="K19" s="26"/>
@@ -3679,7 +3755,7 @@
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="I20" s="29" t="s">
-        <v>303</v>
+        <v>288</v>
       </c>
       <c r="J20" s="29"/>
       <c r="K20" s="26"/>
@@ -3690,7 +3766,7 @@
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
       <c r="I21" s="29" t="s">
-        <v>302</v>
+        <v>287</v>
       </c>
       <c r="J21" s="29"/>
       <c r="K21" s="26"/>
@@ -3701,7 +3777,7 @@
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
       <c r="I22" s="29" t="s">
-        <v>305</v>
+        <v>290</v>
       </c>
       <c r="J22" s="29"/>
       <c r="K22" s="26"/>
@@ -3712,7 +3788,7 @@
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
       <c r="I23" s="29" t="s">
-        <v>306</v>
+        <v>291</v>
       </c>
       <c r="J23" s="29"/>
       <c r="K23" s="26"/>
@@ -3723,7 +3799,7 @@
       <c r="D24" s="2"/>
       <c r="E24" s="1"/>
       <c r="I24" s="8" t="s">
-        <v>307</v>
+        <v>292</v>
       </c>
       <c r="J24" s="13"/>
       <c r="K24" s="26"/>
@@ -3733,7 +3809,7 @@
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
       <c r="I25" s="13" t="s">
-        <v>314</v>
+        <v>299</v>
       </c>
       <c r="J25" s="13"/>
       <c r="K25" s="26"/>
@@ -3742,7 +3818,7 @@
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
       <c r="I26" s="29" t="s">
-        <v>315</v>
+        <v>300</v>
       </c>
       <c r="J26" s="29"/>
       <c r="K26" s="26"/>
@@ -3751,7 +3827,7 @@
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
       <c r="I27" s="29" t="s">
-        <v>316</v>
+        <v>301</v>
       </c>
       <c r="J27" s="29"/>
       <c r="K27" s="26"/>
@@ -3759,7 +3835,7 @@
     <row r="28" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B28" s="3"/>
       <c r="I28" s="29" t="s">
-        <v>317</v>
+        <v>302</v>
       </c>
       <c r="J28" s="29"/>
       <c r="K28" s="26"/>
@@ -3807,8 +3883,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:M117"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M104" sqref="M104"/>
+    <sheetView showGridLines="0" topLeftCell="A100" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O108" sqref="O108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4553,12 +4629,12 @@
     </row>
     <row r="89" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B89" t="s">
-        <v>337</v>
+        <v>322</v>
       </c>
     </row>
     <row r="90" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B90" t="s">
-        <v>336</v>
+        <v>321</v>
       </c>
     </row>
     <row r="92" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -4822,7 +4898,7 @@
     </row>
     <row r="117" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B117" s="8" t="s">
-        <v>335</v>
+        <v>320</v>
       </c>
     </row>
   </sheetData>
@@ -4837,8 +4913,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:P155"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+    <sheetView showGridLines="0" topLeftCell="B79" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H109" sqref="H109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4965,7 +5041,7 @@
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B15" s="25" t="s">
-        <v>261</v>
+        <v>246</v>
       </c>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.3">
@@ -5024,7 +5100,7 @@
         <v>207</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>319</v>
+        <v>304</v>
       </c>
       <c r="L25" s="2" t="s">
         <v>159</v>
@@ -5033,7 +5109,7 @@
         <v>162</v>
       </c>
       <c r="N25" s="1" t="s">
-        <v>270</v>
+        <v>255</v>
       </c>
     </row>
     <row r="26" spans="2:16" x14ac:dyDescent="0.3">
@@ -5041,16 +5117,16 @@
         <v>208</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>287</v>
+        <v>272</v>
       </c>
       <c r="L26" s="2" t="s">
-        <v>288</v>
+        <v>273</v>
       </c>
       <c r="M26" s="2" t="s">
         <v>163</v>
       </c>
       <c r="N26" s="1" t="s">
-        <v>271</v>
+        <v>256</v>
       </c>
     </row>
     <row r="27" spans="2:16" x14ac:dyDescent="0.3">
@@ -5067,21 +5143,21 @@
         <v>161</v>
       </c>
       <c r="N27" s="1" t="s">
-        <v>273</v>
+        <v>258</v>
       </c>
     </row>
     <row r="28" spans="2:16" x14ac:dyDescent="0.3">
       <c r="K28" s="1" t="s">
-        <v>266</v>
+        <v>251</v>
       </c>
       <c r="L28" s="2" t="s">
-        <v>265</v>
+        <v>250</v>
       </c>
       <c r="M28" s="2" t="s">
         <v>161</v>
       </c>
       <c r="N28" s="1" t="s">
-        <v>275</v>
+        <v>260</v>
       </c>
     </row>
     <row r="29" spans="2:16" x14ac:dyDescent="0.3">
@@ -5089,33 +5165,33 @@
         <v>173</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>326</v>
+        <v>311</v>
       </c>
       <c r="L29" s="2" t="s">
-        <v>334</v>
+        <v>319</v>
       </c>
       <c r="M29" s="2" t="s">
         <v>161</v>
       </c>
       <c r="N29" s="1" t="s">
-        <v>269</v>
+        <v>254</v>
       </c>
     </row>
     <row r="30" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
-        <v>320</v>
+        <v>305</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>327</v>
+        <v>312</v>
       </c>
       <c r="L30" s="2" t="s">
-        <v>282</v>
+        <v>267</v>
       </c>
       <c r="M30" s="2" t="s">
         <v>161</v>
       </c>
       <c r="N30" s="1" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
     </row>
     <row r="31" spans="2:16" x14ac:dyDescent="0.3">
@@ -5123,16 +5199,16 @@
         <v>174</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>284</v>
+        <v>269</v>
       </c>
       <c r="L31" s="2" t="s">
-        <v>332</v>
+        <v>317</v>
       </c>
       <c r="M31" s="2" t="s">
         <v>161</v>
       </c>
       <c r="N31" s="1" t="s">
-        <v>275</v>
+        <v>260</v>
       </c>
     </row>
     <row r="32" spans="2:16" x14ac:dyDescent="0.3">
@@ -5147,7 +5223,7 @@
     </row>
     <row r="34" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
-        <v>293</v>
+        <v>278</v>
       </c>
       <c r="K34" t="s">
         <v>165</v>
@@ -5155,7 +5231,7 @@
     </row>
     <row r="35" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
-        <v>292</v>
+        <v>277</v>
       </c>
       <c r="K35" s="5" t="s">
         <v>11</v>
@@ -5169,19 +5245,19 @@
     </row>
     <row r="36" spans="2:13" x14ac:dyDescent="0.3">
       <c r="K36" s="1" t="s">
-        <v>328</v>
+        <v>313</v>
       </c>
       <c r="L36" s="2" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
       <c r="M36" s="1"/>
     </row>
     <row r="37" spans="2:13" x14ac:dyDescent="0.3">
       <c r="K37" s="1" t="s">
-        <v>329</v>
+        <v>314</v>
       </c>
       <c r="L37" s="2" t="s">
-        <v>263</v>
+        <v>248</v>
       </c>
       <c r="M37" s="1"/>
     </row>
@@ -5190,7 +5266,7 @@
         <v>177</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>330</v>
+        <v>315</v>
       </c>
       <c r="L38" s="2" t="s">
         <v>170</v>
@@ -5202,10 +5278,10 @@
         <v>213</v>
       </c>
       <c r="K39" s="28" t="s">
-        <v>331</v>
+        <v>316</v>
       </c>
       <c r="L39" s="2" t="s">
-        <v>280</v>
+        <v>265</v>
       </c>
       <c r="M39" s="1"/>
     </row>
@@ -5221,7 +5297,7 @@
     </row>
     <row r="43" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B43" t="s">
-        <v>291</v>
+        <v>276</v>
       </c>
     </row>
     <row r="44" spans="2:13" x14ac:dyDescent="0.3">
@@ -5269,7 +5345,7 @@
     </row>
     <row r="58" spans="2:16" x14ac:dyDescent="0.3">
       <c r="K58" s="1" t="s">
-        <v>283</v>
+        <v>268</v>
       </c>
       <c r="L58" s="2" t="s">
         <v>159</v>
@@ -5278,7 +5354,7 @@
         <v>162</v>
       </c>
       <c r="N58" s="1" t="s">
-        <v>270</v>
+        <v>255</v>
       </c>
     </row>
     <row r="59" spans="2:16" ht="20.25" x14ac:dyDescent="0.3">
@@ -5295,21 +5371,21 @@
         <v>161</v>
       </c>
       <c r="N59" s="1" t="s">
-        <v>273</v>
+        <v>258</v>
       </c>
     </row>
     <row r="60" spans="2:16" x14ac:dyDescent="0.3">
       <c r="K60" s="1" t="s">
-        <v>266</v>
+        <v>251</v>
       </c>
       <c r="L60" s="2" t="s">
-        <v>265</v>
+        <v>250</v>
       </c>
       <c r="M60" s="2" t="s">
         <v>161</v>
       </c>
       <c r="N60" s="1" t="s">
-        <v>275</v>
+        <v>260</v>
       </c>
     </row>
     <row r="61" spans="2:16" x14ac:dyDescent="0.3">
@@ -5317,16 +5393,16 @@
         <v>184</v>
       </c>
       <c r="K61" s="1" t="s">
-        <v>285</v>
+        <v>270</v>
       </c>
       <c r="L61" s="2" t="s">
-        <v>333</v>
+        <v>318</v>
       </c>
       <c r="M61" s="2" t="s">
         <v>161</v>
       </c>
       <c r="N61" s="1" t="s">
-        <v>275</v>
+        <v>260</v>
       </c>
     </row>
     <row r="62" spans="2:16" x14ac:dyDescent="0.3">
@@ -5334,16 +5410,16 @@
         <v>216</v>
       </c>
       <c r="K62" s="1" t="s">
-        <v>267</v>
+        <v>252</v>
       </c>
       <c r="L62" s="2" t="s">
-        <v>268</v>
+        <v>253</v>
       </c>
       <c r="M62" s="2" t="s">
         <v>161</v>
       </c>
       <c r="N62" s="1" t="s">
-        <v>269</v>
+        <v>254</v>
       </c>
     </row>
     <row r="63" spans="2:16" x14ac:dyDescent="0.3">
@@ -5351,16 +5427,16 @@
         <v>215</v>
       </c>
       <c r="K63" s="1" t="s">
-        <v>281</v>
+        <v>266</v>
       </c>
       <c r="L63" s="2" t="s">
-        <v>282</v>
+        <v>267</v>
       </c>
       <c r="M63" s="2" t="s">
         <v>161</v>
       </c>
       <c r="N63" s="1" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
     </row>
     <row r="64" spans="2:16" x14ac:dyDescent="0.3">
@@ -5395,7 +5471,7 @@
         <v>187</v>
       </c>
       <c r="K68" s="1" t="s">
-        <v>274</v>
+        <v>259</v>
       </c>
       <c r="L68" s="2" t="s">
         <v>169</v>
@@ -5410,16 +5486,16 @@
         <v>167</v>
       </c>
       <c r="L69" s="2" t="s">
-        <v>263</v>
+        <v>248</v>
       </c>
       <c r="M69" s="1"/>
     </row>
     <row r="70" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B70" t="s">
-        <v>294</v>
+        <v>279</v>
       </c>
       <c r="K70" s="1" t="s">
-        <v>272</v>
+        <v>257</v>
       </c>
       <c r="L70" s="2" t="s">
         <v>170</v>
@@ -5428,10 +5504,10 @@
     </row>
     <row r="71" spans="2:13" x14ac:dyDescent="0.3">
       <c r="K71" s="28" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
       <c r="L71" s="2" t="s">
-        <v>280</v>
+        <v>265</v>
       </c>
       <c r="M71" s="1"/>
     </row>
@@ -5500,16 +5576,16 @@
     </row>
     <row r="91" spans="2:16" x14ac:dyDescent="0.3">
       <c r="K91" s="1" t="s">
-        <v>287</v>
+        <v>272</v>
       </c>
       <c r="L91" s="2" t="s">
-        <v>288</v>
+        <v>273</v>
       </c>
       <c r="M91" s="2" t="s">
         <v>163</v>
       </c>
       <c r="N91" s="1" t="s">
-        <v>271</v>
+        <v>256</v>
       </c>
     </row>
     <row r="92" spans="2:16" ht="20.25" x14ac:dyDescent="0.3">
@@ -5526,21 +5602,21 @@
         <v>161</v>
       </c>
       <c r="N92" s="1" t="s">
-        <v>273</v>
+        <v>258</v>
       </c>
     </row>
     <row r="93" spans="2:16" x14ac:dyDescent="0.3">
       <c r="K93" s="1" t="s">
-        <v>266</v>
+        <v>251</v>
       </c>
       <c r="L93" s="2" t="s">
-        <v>265</v>
+        <v>250</v>
       </c>
       <c r="M93" s="2" t="s">
         <v>161</v>
       </c>
       <c r="N93" s="1" t="s">
-        <v>275</v>
+        <v>260</v>
       </c>
     </row>
     <row r="94" spans="2:16" x14ac:dyDescent="0.3">
@@ -5548,16 +5624,16 @@
         <v>172</v>
       </c>
       <c r="K94" s="1" t="s">
-        <v>277</v>
+        <v>262</v>
       </c>
       <c r="L94" s="2" t="s">
-        <v>278</v>
+        <v>263</v>
       </c>
       <c r="M94" s="2" t="s">
         <v>161</v>
       </c>
       <c r="N94" s="1" t="s">
-        <v>269</v>
+        <v>254</v>
       </c>
     </row>
     <row r="95" spans="2:16" x14ac:dyDescent="0.3">
@@ -5565,16 +5641,16 @@
         <v>218</v>
       </c>
       <c r="K95" s="1" t="s">
-        <v>281</v>
+        <v>266</v>
       </c>
       <c r="L95" s="2" t="s">
-        <v>282</v>
+        <v>267</v>
       </c>
       <c r="M95" s="2" t="s">
         <v>161</v>
       </c>
       <c r="N95" s="1" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
     </row>
     <row r="96" spans="2:16" x14ac:dyDescent="0.3">
@@ -5582,16 +5658,16 @@
         <v>219</v>
       </c>
       <c r="K96" s="1" t="s">
-        <v>284</v>
+        <v>269</v>
       </c>
       <c r="L96" s="2" t="s">
-        <v>333</v>
+        <v>318</v>
       </c>
       <c r="M96" s="2" t="s">
         <v>161</v>
       </c>
       <c r="N96" s="1" t="s">
-        <v>275</v>
+        <v>260</v>
       </c>
     </row>
     <row r="97" spans="2:14" x14ac:dyDescent="0.3">
@@ -5599,16 +5675,16 @@
         <v>220</v>
       </c>
       <c r="K97" s="1" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
       <c r="L97" s="2" t="s">
-        <v>289</v>
+        <v>274</v>
       </c>
       <c r="M97" s="2" t="s">
         <v>161</v>
       </c>
       <c r="N97" s="1" t="s">
-        <v>290</v>
+        <v>275</v>
       </c>
     </row>
     <row r="98" spans="2:14" x14ac:dyDescent="0.3">
@@ -5623,10 +5699,10 @@
     </row>
     <row r="101" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B101" t="s">
-        <v>295</v>
+        <v>280</v>
       </c>
       <c r="K101" t="s">
-        <v>276</v>
+        <v>261</v>
       </c>
     </row>
     <row r="102" spans="2:14" x14ac:dyDescent="0.3">
@@ -5660,7 +5736,7 @@
         <v>167</v>
       </c>
       <c r="L104" s="2" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
       <c r="M104" s="1"/>
     </row>
@@ -5690,10 +5766,10 @@
         <v>197</v>
       </c>
       <c r="K107" s="28" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
       <c r="L107" s="2" t="s">
-        <v>280</v>
+        <v>265</v>
       </c>
       <c r="M107" s="1"/>
     </row>
@@ -5850,10 +5926,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:M36"/>
+  <dimension ref="B2:L35"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5861,276 +5937,242 @@
     <col min="1" max="1" width="4.875" customWidth="1"/>
     <col min="2" max="2" width="10.875" customWidth="1"/>
     <col min="3" max="3" width="22.125" customWidth="1"/>
-    <col min="4" max="4" width="15.625" customWidth="1"/>
-    <col min="12" max="12" width="11" customWidth="1"/>
-    <col min="13" max="13" width="44" customWidth="1"/>
+    <col min="11" max="11" width="11" customWidth="1"/>
+    <col min="12" max="12" width="44" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:12" ht="26.25" x14ac:dyDescent="0.3">
       <c r="B2" s="7" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B4" s="8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>135</v>
       </c>
-      <c r="L6" s="5" t="s">
+      <c r="K6" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="M6" s="6" t="s">
+      <c r="L6" s="6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>136</v>
       </c>
-      <c r="L7" s="11" t="s">
+      <c r="K7" s="11" t="s">
         <v>222</v>
       </c>
-      <c r="M7" s="2" t="s">
+      <c r="L7" s="2" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>247</v>
-      </c>
-      <c r="L8" s="11" t="s">
-        <v>259</v>
-      </c>
-      <c r="M8" s="2" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="L9" s="11" t="s">
-        <v>339</v>
-      </c>
-      <c r="M9" s="2" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
+        <v>234</v>
+      </c>
+      <c r="K8" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="K9" s="11" t="s">
+        <v>324</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="L10" s="11" t="s">
-        <v>340</v>
-      </c>
-      <c r="M10" s="2" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="K10" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B19" s="8" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.3">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.3">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B24" s="8" t="s">
         <v>224</v>
       </c>
-      <c r="L24" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="K24" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B25" s="5" t="s">
         <v>225</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>257</v>
+        <v>230</v>
       </c>
       <c r="E25" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="K25" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B26" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="F25" s="6" t="s">
-        <v>244</v>
-      </c>
-      <c r="L25" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B26" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>258</v>
-      </c>
+      <c r="D26" s="1"/>
       <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-    </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="L28" t="s">
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K28" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K29" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="30" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B30" s="8" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="L29" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B30" s="8" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B31" s="5" t="s">
         <v>225</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="D31" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="32" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B32" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="E31" s="6" t="s">
-        <v>243</v>
-      </c>
-      <c r="F31" s="6" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="32" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B32" s="1" t="s">
+      <c r="C32" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+    </row>
+    <row r="33" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B33" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="C32" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B33" s="1" t="s">
+      <c r="C33" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="K33" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="34" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B34" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="C33" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="L33" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B34" s="1" t="s">
-        <v>229</v>
-      </c>
       <c r="C34" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>240</v>
-      </c>
+        <v>335</v>
+      </c>
+      <c r="D34" s="1"/>
       <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B35" s="1" t="s">
-        <v>230</v>
+    </row>
+    <row r="35" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B35" s="28" t="s">
+        <v>330</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>241</v>
-      </c>
+        <v>334</v>
+      </c>
+      <c r="D35" s="1"/>
       <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-    </row>
-    <row r="36" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B36" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:B108"/>
+  <dimension ref="B2:B157"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="AQ14" sqref="AQ14"/>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6140,22 +6182,22 @@
   <sheetData>
     <row r="2" spans="2:2" ht="31.5" x14ac:dyDescent="0.3">
       <c r="B2" s="9" t="s">
-        <v>250</v>
+        <v>237</v>
       </c>
     </row>
     <row r="5" spans="2:2" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B5" s="27" t="s">
-        <v>251</v>
+        <v>238</v>
       </c>
     </row>
     <row r="27" spans="2:2" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B27" s="27" t="s">
-        <v>252</v>
+        <v>239</v>
       </c>
     </row>
     <row r="72" spans="2:2" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B72" s="27" t="s">
-        <v>253</v>
+        <v>240</v>
       </c>
     </row>
     <row r="73" spans="2:2" ht="20.25" x14ac:dyDescent="0.3">
@@ -6253,7 +6295,12 @@
     </row>
     <row r="108" spans="2:2" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B108" s="27" t="s">
-        <v>254</v>
+        <v>241</v>
+      </c>
+    </row>
+    <row r="157" spans="2:2" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B157" s="27" t="s">
+        <v>328</v>
       </c>
     </row>
   </sheetData>

--- a/Document/시스템 기획서/미션 시스템_강동민.xlsx
+++ b/Document/시스템 기획서/미션 시스템_강동민.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12255" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12255" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="개요" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="336">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="341">
   <si>
     <t>작성자</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1372,6 +1372,26 @@
   </si>
   <si>
     <t>변신 회복율 + 1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>용어 정리</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>미션 데이터</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>몬스터 데이터</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>몬스터 스폰 데이터</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>몬스터 스폰 데이터</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1703,15 +1723,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>303815</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>242607</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>16808</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3530,10 +3550,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:K32"/>
+  <dimension ref="B2:K54"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3548,11 +3568,8 @@
       <c r="B2" s="9" t="s">
         <v>303</v>
       </c>
-      <c r="I2" s="9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="2:11" ht="17.25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B4" s="5" t="s">
         <v>1</v>
       </c>
@@ -3564,9 +3581,6 @@
       </c>
       <c r="E4" s="6" t="s">
         <v>3</v>
-      </c>
-      <c r="I4" s="10" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.3">
@@ -3580,10 +3594,6 @@
         <v>5</v>
       </c>
       <c r="E5" s="2"/>
-      <c r="I5" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="J5" s="29"/>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B6" s="4">
@@ -3596,10 +3606,6 @@
         <v>155</v>
       </c>
       <c r="E6" s="2"/>
-      <c r="I6" s="29" t="s">
-        <v>293</v>
-      </c>
-      <c r="J6" s="29"/>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B7" s="4">
@@ -3612,10 +3618,6 @@
         <v>298</v>
       </c>
       <c r="E7" s="2"/>
-      <c r="I7" s="29" t="s">
-        <v>294</v>
-      </c>
-      <c r="J7" s="29"/>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B8" s="4">
@@ -3628,59 +3630,36 @@
         <v>331</v>
       </c>
       <c r="E8" s="2"/>
-      <c r="I8" s="29" t="s">
-        <v>295</v>
-      </c>
-      <c r="J8" s="29"/>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
-      <c r="I9" s="29" t="s">
-        <v>296</v>
-      </c>
-      <c r="J9" s="29"/>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
-      <c r="I10" s="30" t="s">
-        <v>297</v>
-      </c>
-      <c r="J10" s="30"/>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
-      <c r="I11" s="8" t="s">
-        <v>52</v>
-      </c>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
-      <c r="I12" s="30" t="s">
-        <v>141</v>
-      </c>
-      <c r="J12" s="30"/>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
-      <c r="I13" s="30" t="s">
-        <v>142</v>
-      </c>
-      <c r="J13" s="30"/>
       <c r="K13" s="26"/>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.3">
@@ -3688,10 +3667,6 @@
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
-      <c r="I14" s="26" t="s">
-        <v>282</v>
-      </c>
-      <c r="J14" s="26"/>
       <c r="K14" s="26"/>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.3">
@@ -3699,10 +3674,6 @@
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
-      <c r="I15" s="26" t="s">
-        <v>283</v>
-      </c>
-      <c r="J15" s="26"/>
       <c r="K15" s="26"/>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.3">
@@ -3710,10 +3681,6 @@
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
-      <c r="I16" s="26" t="s">
-        <v>284</v>
-      </c>
-      <c r="J16" s="26"/>
       <c r="K16" s="26"/>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.3">
@@ -3721,10 +3688,6 @@
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
-      <c r="I17" s="26" t="s">
-        <v>285</v>
-      </c>
-      <c r="J17" s="26"/>
       <c r="K17" s="26"/>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.3">
@@ -3732,10 +3695,6 @@
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
-      <c r="I18" s="8" t="s">
-        <v>286</v>
-      </c>
-      <c r="J18" s="26"/>
       <c r="K18" s="26"/>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.3">
@@ -3743,10 +3702,6 @@
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
-      <c r="I19" s="29" t="s">
-        <v>289</v>
-      </c>
-      <c r="J19" s="29"/>
       <c r="K19" s="26"/>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.3">
@@ -3754,10 +3709,6 @@
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
-      <c r="I20" s="29" t="s">
-        <v>288</v>
-      </c>
-      <c r="J20" s="29"/>
       <c r="K20" s="26"/>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.3">
@@ -3765,10 +3716,6 @@
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
-      <c r="I21" s="29" t="s">
-        <v>287</v>
-      </c>
-      <c r="J21" s="29"/>
       <c r="K21" s="26"/>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.3">
@@ -3776,10 +3723,6 @@
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
-      <c r="I22" s="29" t="s">
-        <v>290</v>
-      </c>
-      <c r="J22" s="29"/>
       <c r="K22" s="26"/>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.3">
@@ -3787,10 +3730,6 @@
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
-      <c r="I23" s="29" t="s">
-        <v>291</v>
-      </c>
-      <c r="J23" s="29"/>
       <c r="K23" s="26"/>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.3">
@@ -3798,79 +3737,202 @@
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="1"/>
-      <c r="I24" s="8" t="s">
-        <v>292</v>
-      </c>
-      <c r="J24" s="13"/>
       <c r="K24" s="26"/>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
-      <c r="I25" s="13" t="s">
-        <v>299</v>
-      </c>
-      <c r="J25" s="13"/>
       <c r="K25" s="26"/>
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
-      <c r="I26" s="29" t="s">
-        <v>300</v>
-      </c>
-      <c r="J26" s="29"/>
       <c r="K26" s="26"/>
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
-      <c r="I27" s="29" t="s">
+      <c r="K27" s="26"/>
+    </row>
+    <row r="28" spans="2:11" ht="31.5" x14ac:dyDescent="0.3">
+      <c r="B28" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="K28" s="26"/>
+    </row>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K29" s="26"/>
+    </row>
+    <row r="30" spans="2:11" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B30" s="10" t="s">
+        <v>281</v>
+      </c>
+      <c r="K30" s="26"/>
+    </row>
+    <row r="31" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B31" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="C31" s="29"/>
+      <c r="K31" s="26"/>
+    </row>
+    <row r="32" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B32" s="29" t="s">
+        <v>293</v>
+      </c>
+      <c r="C32" s="29"/>
+      <c r="K32" s="26"/>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B33" s="29" t="s">
+        <v>294</v>
+      </c>
+      <c r="C33" s="29"/>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B34" s="29" t="s">
+        <v>295</v>
+      </c>
+      <c r="C34" s="29"/>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B35" s="29" t="s">
+        <v>296</v>
+      </c>
+      <c r="C35" s="29"/>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B36" s="30" t="s">
+        <v>297</v>
+      </c>
+      <c r="C36" s="30"/>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B37" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B38" s="30" t="s">
+        <v>141</v>
+      </c>
+      <c r="C38" s="30"/>
+    </row>
+    <row r="39" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B39" s="30" t="s">
+        <v>142</v>
+      </c>
+      <c r="C39" s="30"/>
+    </row>
+    <row r="40" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B40" s="26" t="s">
+        <v>282</v>
+      </c>
+      <c r="C40" s="26"/>
+    </row>
+    <row r="41" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B41" s="26" t="s">
+        <v>283</v>
+      </c>
+      <c r="C41" s="26"/>
+    </row>
+    <row r="42" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B42" s="26" t="s">
+        <v>284</v>
+      </c>
+      <c r="C42" s="26"/>
+    </row>
+    <row r="43" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B43" s="26" t="s">
+        <v>285</v>
+      </c>
+      <c r="C43" s="26"/>
+    </row>
+    <row r="44" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B44" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="C44" s="26"/>
+    </row>
+    <row r="45" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B45" s="29" t="s">
+        <v>289</v>
+      </c>
+      <c r="C45" s="29"/>
+    </row>
+    <row r="46" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B46" s="29" t="s">
+        <v>288</v>
+      </c>
+      <c r="C46" s="29"/>
+    </row>
+    <row r="47" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B47" s="29" t="s">
+        <v>287</v>
+      </c>
+      <c r="C47" s="29"/>
+    </row>
+    <row r="48" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B48" s="29" t="s">
+        <v>290</v>
+      </c>
+      <c r="C48" s="29"/>
+    </row>
+    <row r="49" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B49" s="29" t="s">
+        <v>291</v>
+      </c>
+      <c r="C49" s="29"/>
+    </row>
+    <row r="50" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B50" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="C50" s="13"/>
+    </row>
+    <row r="51" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B51" s="13" t="s">
+        <v>299</v>
+      </c>
+      <c r="C51" s="13"/>
+    </row>
+    <row r="52" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B52" s="29" t="s">
+        <v>300</v>
+      </c>
+      <c r="C52" s="29"/>
+    </row>
+    <row r="53" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B53" s="29" t="s">
         <v>301</v>
       </c>
-      <c r="J27" s="29"/>
-      <c r="K27" s="26"/>
-    </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B28" s="3"/>
-      <c r="I28" s="29" t="s">
+      <c r="C53" s="29"/>
+    </row>
+    <row r="54" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B54" s="29" t="s">
         <v>302</v>
       </c>
-      <c r="J28" s="29"/>
-      <c r="K28" s="26"/>
-    </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B29" s="3"/>
-      <c r="K29" s="26"/>
-    </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="K30" s="26"/>
-    </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="K31" s="26"/>
-    </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="K32" s="26"/>
+      <c r="C54" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B46:C46"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4913,8 +4975,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:P155"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B79" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H109" sqref="H109"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N36" sqref="N36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5109,7 +5171,7 @@
         <v>162</v>
       </c>
       <c r="N25" s="1" t="s">
-        <v>255</v>
+        <v>337</v>
       </c>
     </row>
     <row r="26" spans="2:16" x14ac:dyDescent="0.3">
@@ -5126,7 +5188,7 @@
         <v>163</v>
       </c>
       <c r="N26" s="1" t="s">
-        <v>256</v>
+        <v>337</v>
       </c>
     </row>
     <row r="27" spans="2:16" x14ac:dyDescent="0.3">
@@ -5143,7 +5205,7 @@
         <v>161</v>
       </c>
       <c r="N27" s="1" t="s">
-        <v>258</v>
+        <v>338</v>
       </c>
     </row>
     <row r="28" spans="2:16" x14ac:dyDescent="0.3">
@@ -5157,7 +5219,7 @@
         <v>161</v>
       </c>
       <c r="N28" s="1" t="s">
-        <v>260</v>
+        <v>339</v>
       </c>
     </row>
     <row r="29" spans="2:16" x14ac:dyDescent="0.3">
@@ -5174,7 +5236,7 @@
         <v>161</v>
       </c>
       <c r="N29" s="1" t="s">
-        <v>254</v>
+        <v>314</v>
       </c>
     </row>
     <row r="30" spans="2:16" x14ac:dyDescent="0.3">
@@ -5191,7 +5253,7 @@
         <v>161</v>
       </c>
       <c r="N30" s="1" t="s">
-        <v>264</v>
+        <v>316</v>
       </c>
     </row>
     <row r="31" spans="2:16" x14ac:dyDescent="0.3">
@@ -5208,7 +5270,7 @@
         <v>161</v>
       </c>
       <c r="N31" s="1" t="s">
-        <v>260</v>
+        <v>340</v>
       </c>
     </row>
     <row r="32" spans="2:16" x14ac:dyDescent="0.3">
@@ -5928,8 +5990,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:L35"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5954,6 +6016,9 @@
     <row r="5" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>134</v>
+      </c>
+      <c r="K5" t="s">
+        <v>336</v>
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.3">

--- a/Document/시스템 기획서/미션 시스템_강동민.xlsx
+++ b/Document/시스템 기획서/미션 시스템_강동민.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12255" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12255" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="개요" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="341">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="337">
   <si>
     <t>작성자</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -275,291 +275,631 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>메인 목표</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>미션 마다 있는 스테이지 클리어 조건</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 미션마다 승리조건과 패배조건이 존재 함.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 미션은 스테이지를 들어가기전 알 수 있으며 다음 스테이지를 선택할 때 미션을 미리 볼수 있음.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 제시된 미션은 제시된 안에서만 선택할 수 있음.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 미션을 수행하고 스테이지를 클리어 하면 제시된 보상을 받게 됨.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 미션은 한가지 이상 존재할 수 없음.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 모든 미션은 사망시 패배로 간주함.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 스테이지의 시작은 캐릭터가 들어가고 행동을 하나라도 하면 시작됨.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 미션은 승리 조건을 달성해도 몬스터가 남아 있다면 선택창이 나오지 않게 됨.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 미션 선택창에서 클릭한 채로 드레그를 하여 버튼 옆으로 이동시 취소됨.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6. UI</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 미션 선택UI가 나와도 게임이 멈추지 않지만 캐릭터 조작이 불가능 함.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 미션창이 나오면 뒤에 반투명 검은 화면을 넣어 미션창에 집중되도록 함.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 미션은 3가지안 중 고를 수 있도록 하여 경험하고 하기 싫은 것은 배제도 가능</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 미션창은 3개 까지 나올 수 있음.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 미션의 메인 목표 실패</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 구출 대상들이 존재하며 대상과 접촉시 캐릭터를 따라 다니며 구출 하는 상태로 변함.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 구출대상들을 일정 지점까지 이동 시켜야 함.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 스테이지 내에 몬스터는 일정 시간마다 계속해서 스폰 됨.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 구출 대상들이 정해진 지점까지 이동시 구출 상태로 전환됨.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 구출 대상이 버틸수 있는 시간은 제한되어 있음.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 구출 대상은 각기 다른 구출 시간을 가지고 있음.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 각 요정들은 위치를 화살표로 안내 해줌.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 패배 조건은 하나만 달성되도 패배임.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 모든 몬스터가 제거 된 상태</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 승리시 미션 완료 UI를 표시 해주고 미션 선택 창으로 이동함.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 패배시 게임 오버 씬으로 이동함.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 미션 표시 UI</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 미션 진행 UI가 나와도 게임이 멈추지 않으며 캐릭터 조작도 가능함.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 미션 상황 표시는 진행상황이 일정 이상 되었을때 표시 해주고 점점 사라짐</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 미션 상황 표시가 되어 있는중 새로 표시값이 오면 새로온 값으로 대체함.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C. 승리 조건</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D.패배 조건</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 캐릭터의 HP가 1이상</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 제한시간 초과</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 미션 선택 UI</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 미션을 달성하여 승리 하였을 때 표시함</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 미션을 달성하지 못하고 패배하였을 때 표시함</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 미션을 선택시 선택된 스테이지 씬으로 이동함.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 메인 화면은 처음 켰을 당시 나오는 화면으로 이동시킴.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 게임종료는 게임 클라이언트를 종료 시킴.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 캐릭터의 HP가 0이하</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>웨이브</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 몬스터가 순서대로 나오는 웨이브 시세템에 대한 설명</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 미션중 웨이브가 사용되는 미션에 대한 설명</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 웨이브의 진행 방식과 나오는 몬스터에 대한 서술</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 각 웨이브 마다 정해진 만큼의 몬스터가 나옴.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 최대 웨이브는 5웨이브 까지있음.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 웨이브 시작시 현재 웨이브와 남은 웨이브를 미션 상황표시UI로 표시해줌.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 각 웨이브는 클리어 후 클리어 UI를 표시하고 4초의 휴식 시간후 다음 웨이브 시작.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 웨이브에서 몬스터의 스폰지점은 고정되어 있음.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 웨이브 시작 Ui가 사라지기 전 다음 웨이브가 시작시 전 값에 덮어 쒸워 1개의 UI만 표시함.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 웨이브의 데이터는 웨이브 테이터 테이블에서 가져옴.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격, 이동, 스킬과 같은 유저의 조작</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>요정 해방</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>스테이지를 클리어했다는 연출</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4. 웨이브 단계</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1웨이브: 근접 몬스터</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2웨이브: 장거리 몬스터</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3웨이브: 근, 장거리 몬스터</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5웨이브: 근, 장거리 몬스터+ 근, 장거리 강화형</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>웨이브</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4웨이브: 근, 장거리 몬스터+ 근거리 강화형</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>스폰지점</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 웨이브는 모든 몬스터가 섬멸되면 클리어로 판단 함.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>대상의 HP가 0이하가 되어 제거된 상태</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>섬멸</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>몬스터가 나오는 위치</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>몬스터가 스폰지점에서 일정 횟수나오는 순간들</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 웨이브의 몬스터 양은 데이터 테이블로 양을 조절한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>보상</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 스테이지를 클리어시 받는 보상에 대한 설명</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 스테이지 클리어후 받는 보상과 사용되는 과정에 대한 설명</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 각 보상은 스테이지를 클리어 시 획득할 수 있음.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 미션 상황 은 현재 웨이브, 섬멸 남은 수, 남은 생존 시간, 클리어 가 있음</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">      2.1 개요</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">      2.2 종류</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 게임 오버 UI</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 재시작은 현재미션 부터 다시 시작함.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  - 모든 미션은 캐릭터의 HP가 0이되면 패배한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  - 스테이지 진입시 캐릭터가 행동을 하면 제한시간이 시작함.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  - 승리시 미션 선택 창이 나옴.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  - 모든 미션은 승리시 요정 해방 연출 출력 후 보상 선택 UI를 출력함.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  - 패배시 게임오버 UI를 출력함</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>명칭</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>내용</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터 형</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>비고</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">흐름도 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>초안 내용 구체화</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 기획의도</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>흐름도</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Monster_ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>미션의 제한시간으로 점점 감소함</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>몬스터의 고유ID로 ID로 몬스터를 구분</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>정수형</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>실수형</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>정수형</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용되는 값</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용되는 테이블</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>몬스터 스폰 테이블</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>미션 테이블</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>몬스터 테이블</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>몬스터를 생성하는 정보</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>몬스터의 값에 대한 정보</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>명칭</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  - 개요</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  - 미션 룰</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   - 제한시간은 점점 감소하고 0에서 멈춤.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   - 스테이지 내에 모든 몬스터를 처치해야 함.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   - 스테이지 내에 한정된 몬스터만 스폰 됨.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  - 승리 조건</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   - 캐릭터의 HP가 1이상</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   - 패배 조건</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    - 캐릭터의 HP가 0이하</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  - 예외 처리</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   - 승리 조건은 모두 달성하기 전까지 승리가 아님.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   - 패배 조건은 하나만 달성되도 패배처리 됨.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  - 개요</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  - 미션 룰</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   - 제한 시간이 존재하며 제한시간은 "Mission_Time"에서 시간을 받아옴</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   - 제한 시간은 감소하며 0 이하가 되면 제한시간이 멈춤.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   - 제한 시간 동안 몬스터는 무제한 스폰 됨.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  - 승리 조건</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   - 제한 시간 내에 생존</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  - 패배 조건</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   - 캐릭터의 HP가 0이하</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  - 예외 처리</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   - 승리 조건인 제한시간만 달성해도 승리가 됨.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   - 패배 조건은 하나만 달성되도 패배임.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   - 웨이브 동안 한정된 몬스터가 스폰됨.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   - 모든 웨이브 완료</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   - 캐릭터의 HP가1이상</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   - 캐릭터의 HP가 0이하</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   - 승리 조건인 모든 웨이브를 버텨야 승리가 됨.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   - 웨이브는 오직 하나만 가능</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   - 미션 상황 표시 UI는 증복된다면 앞에 있는 내용을 제거하고 새로운 내용을 보여줌.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>웨이브 테이블</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>각 웨이브당 할당된 정보</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 0초 가 되어 패배하게 되는 미션의 경우 0초가 되고 게임오버 UI가 뜬다면 조작을 불가능 하게 전환함.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t xml:space="preserve"> - </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>메인 목표</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>미션 마다 있는 스테이지 클리어 조건</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 미션마다 승리조건과 패배조건이 존재 함.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 미션은 스테이지를 들어가기전 알 수 있으며 다음 스테이지를 선택할 때 미션을 미리 볼수 있음.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 제시된 미션은 제시된 안에서만 선택할 수 있음.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 미션을 수행하고 스테이지를 클리어 하면 제시된 보상을 받게 됨.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 미션은 한가지 이상 존재할 수 없음.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 모든 미션은 사망시 패배로 간주함.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 스테이지의 시작은 캐릭터가 들어가고 행동을 하나라도 하면 시작됨.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 미션은 승리 조건을 달성해도 몬스터가 남아 있다면 선택창이 나오지 않게 됨.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 미션 선택창에서 클릭한 채로 드레그를 하여 버튼 옆으로 이동시 취소됨.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>6. UI</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 미션 선택UI가 나와도 게임이 멈추지 않지만 캐릭터 조작이 불가능 함.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 미션창이 나오면 뒤에 반투명 검은 화면을 넣어 미션창에 집중되도록 함.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 미션은 3가지안 중 고를 수 있도록 하여 경험하고 하기 싫은 것은 배제도 가능</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 미션창은 3개 까지 나올 수 있음.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 미션의 메인 목표 실패</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 구출 대상들이 존재하며 대상과 접촉시 캐릭터를 따라 다니며 구출 하는 상태로 변함.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 구출대상들을 일정 지점까지 이동 시켜야 함.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 스테이지 내에 몬스터는 일정 시간마다 계속해서 스폰 됨.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 구출 대상들이 정해진 지점까지 이동시 구출 상태로 전환됨.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 구출 대상이 버틸수 있는 시간은 제한되어 있음.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 구출 대상은 각기 다른 구출 시간을 가지고 있음.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 각 요정들은 위치를 화살표로 안내 해줌.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 패배 조건은 하나만 달성되도 패배임.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 모든 몬스터가 제거 된 상태</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 승리시 미션 완료 UI를 표시 해주고 미션 선택 창으로 이동함.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 패배시 게임 오버 씬으로 이동함.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 미션 표시 UI</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 미션 진행 UI가 나와도 게임이 멈추지 않으며 캐릭터 조작도 가능함.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 미션 상황 표시는 진행상황이 일정 이상 되었을때 표시 해주고 점점 사라짐</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 미션 상황 표시가 되어 있는중 새로 표시값이 오면 새로온 값으로 대체함.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>C. 승리 조건</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>D.패배 조건</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 캐릭터의 HP가 1이상</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 제한시간 초과</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 미션 선택 UI</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 미션을 달성하여 승리 하였을 때 표시함</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 미션을 달성하지 못하고 패배하였을 때 표시함</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 미션을 선택시 선택된 스테이지 씬으로 이동함.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 메인 화면은 처음 켰을 당시 나오는 화면으로 이동시킴.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 게임종료는 게임 클라이언트를 종료 시킴.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 캐릭터의 HP가 0이하</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>웨이브</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 몬스터가 순서대로 나오는 웨이브 시세템에 대한 설명</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 미션중 웨이브가 사용되는 미션에 대한 설명</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 웨이브의 진행 방식과 나오는 몬스터에 대한 서술</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 각 웨이브 마다 정해진 만큼의 몬스터가 나옴.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 최대 웨이브는 5웨이브 까지있음.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 웨이브 시작시 현재 웨이브와 남은 웨이브를 미션 상황표시UI로 표시해줌.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 각 웨이브는 클리어 후 클리어 UI를 표시하고 4초의 휴식 시간후 다음 웨이브 시작.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 웨이브에서 몬스터의 스폰지점은 고정되어 있음.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 웨이브 시작 Ui가 사라지기 전 다음 웨이브가 시작시 전 값에 덮어 쒸워 1개의 UI만 표시함.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 웨이브의 데이터는 웨이브 테이터 테이블에서 가져옴.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>공격, 이동, 스킬과 같은 유저의 조작</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>요정 해방</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>스테이지를 클리어했다는 연출</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>4. 웨이브 단계</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1웨이브: 근접 몬스터</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2웨이브: 장거리 몬스터</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>3웨이브: 근, 장거리 몬스터</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>5웨이브: 근, 장거리 몬스터+ 근, 장거리 강화형</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>웨이브</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>4웨이브: 근, 장거리 몬스터+ 근거리 강화형</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>스폰지점</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 웨이브는 모든 몬스터가 섬멸되면 클리어로 판단 함.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>대상의 HP가 0이하가 되어 제거된 상태</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>섬멸</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>몬스터가 나오는 위치</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>몬스터가 스폰지점에서 일정 횟수나오는 순간들</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 웨이브의 몬스터 양은 데이터 테이블로 양을 조절한다.</t>
+    <t xml:space="preserve">   - 빠른전투, 진행이 핵심인 미션</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   - 적은 몬스터로 빠르게 진행이 가능하지만 그만큼 변신게이지가 손해</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   - 유저에게 빠르게 진행하는 대신 보상을 일부 포기하는 선택을 제시</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>처치</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 제한 시간 내에 모든 몬스터 처치</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   - 모든 몬스터 처치</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   - 제한 시간 내에 모든 몬스터 처치</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   - 웨이브마다 나오는 모든 몬스터를 처치해야 함.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   - 처치 속도에 따라 변신 게이지 보상을 더 받을 수 있음.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   - 빠른 처치와 시간내 계속되는 전투가 핵심.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   - 유저에게 실력에 따라 변신 게이지 보상을 추가로 얻는 기회를 제시</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   - 점점 대량으로 오는 적을 처치하는 것이 핵심</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   - 적을 쫓기 보단 특정지역에서 적을 처치</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   - 점점 늘어나는 적에게 어떻게 스킬을 사용하여 효율적인 퇴치 생각 유도</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   - 자신의 스킬의 사용 대처에 따라 클리어 시간의 차이와 달성감 존재.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -567,79 +907,35 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> - 스테이지를 클리어시 받는 보상에 대한 설명</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 스테이지 클리어후 받는 보상과 사용되는 과정에 대한 설명</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 보상의 리스트와 효과 적용과 해제에 대한 설명</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 각 보상은 스테이지를 클리어 시 획득할 수 있음.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 보상은 스테이지 하나당 하나의 보상만 받을 수 있습니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 모든 보상은 수치를 올려주는 보상입니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 미션 상황 은 현재 웨이브, 섬멸 남은 수, 남은 생존 시간, 클리어 가 있음</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">      2.1 개요</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">      2.2 종류</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 게임 오버 UI</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 재시작은 현재미션 부터 다시 시작함.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  - 모든 미션은 캐릭터의 HP가 0이되면 패배한다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  - 스테이지 진입시 캐릭터가 행동을 하면 제한시간이 시작함.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  - 승리시 미션 선택 창이 나옴.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  - 모든 미션은 승리시 요정 해방 연출 출력 후 보상 선택 UI를 출력함.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  - 패배시 게임오버 UI를 출력함</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>명칭</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>내용</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>데이터 형</t>
+    <t>스테이지 클리어시 유저에게 주어지는 효과</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4. 회복형 보상</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이름</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격력</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>방어력</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>변신 회복율</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>적용 내용</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>등장 확률</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -647,15 +943,15 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">흐름도 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>초안 내용 구체화</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 기획의도</t>
+    <t xml:space="preserve"> - 보상은 두가지 회복형과 지속형이 존재함.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 현재 스테이지의 보상은 다음 스테이지에서 적용됨.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 보상의 종류에 따라 유저에게 스테이지 선택에 대한 고민을 유도</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -663,31 +959,95 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Monster_ID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>미션의 제한시간으로 점점 감소함</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>몬스터의 고유ID로 ID로 몬스터를 구분</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>정수형</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>실수형</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>정수형</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>사용되는 값</t>
+    <t>1. 미션 진행 흐름도</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. 섬멸 미션</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3. 생존 미션</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4. 방어 미션</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>변신 게이지</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>변신 게이지 + 100</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>즉시</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>따로 시간은 없고 보상받을때 한번 적용</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  - 몬스터 스폰에 대한 정보는 "몬스터 스폰 테이블" 에서 받아옴.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>몬스터를 생성하는 좌표 정보</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>미션의 스폰될 몬스터의 수와 종류, 제한시간 의 정보</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>미션의 스폰될 몬스터의 수와 종류, 제한시간 의 정보</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐릭터, 몬스터가 스폰되는 위치</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Spawn_Nom</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Survive_Mon</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>생존미션에 사용할 몬스터의 정보와 스폰될 몬스터들의 정보</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>미션 테이블</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>미션 테이블</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>미션 테이블</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>몬스터 테이블</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>몬스터 테이블</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>몬스터 스폰 테이블</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>몬스터 스폰 테이블</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -695,151 +1055,55 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>몬스터 스폰 테이블</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>미션 테이블</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>몬스터 테이블</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>몬스터를 생성하는 정보</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>몬스터의 값에 대한 정보</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>명칭</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  - 개요</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  - 미션 룰</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">   - 제한시간은 점점 감소하고 0에서 멈춤.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">   - 스테이지 내에 모든 몬스터를 처치해야 함.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">   - 스테이지 내에 한정된 몬스터만 스폰 됨.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  - 승리 조건</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">   - 캐릭터의 HP가 1이상</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">   - 패배 조건</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">    - 캐릭터의 HP가 0이하</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  - 예외 처리</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">   - 승리 조건은 모두 달성하기 전까지 승리가 아님.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">   - 패배 조건은 하나만 달성되도 패배처리 됨.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  - 개요</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  - 미션 룰</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">   - 제한 시간이 존재하며 제한시간은 "Mission_Time"에서 시간을 받아옴</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">   - 제한 시간은 감소하며 0 이하가 되면 제한시간이 멈춤.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">   - 제한 시간 동안 몬스터는 무제한 스폰 됨.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  - 승리 조건</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">   - 제한 시간 내에 생존</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  - 패배 조건</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">   - 캐릭터의 HP가 0이하</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  - 예외 처리</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">   - 승리 조건인 제한시간만 달성해도 승리가 됨.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">   - 패배 조건은 하나만 달성되도 패배임.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">   - 웨이브 동안 한정된 몬스터가 스폰됨.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">   - 모든 웨이브 완료</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">   - 캐릭터의 HP가1이상</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">   - 캐릭터의 HP가 0이하</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">   - 승리 조건인 모든 웨이브를 버텨야 승리가 됨.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">   - 웨이브는 오직 하나만 가능</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">   - 미션 상황 표시 UI는 증복된다면 앞에 있는 내용을 제거하고 새로운 내용을 보여줌.</t>
+    <t>Defense_Mon</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>방어미션에 사용할 몬스터의 정보와 스폰될 몬스터들의 정보</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>스테이지 테이블</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>스테이지의 좌표 정보와 오브젝트의 정보</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stage_Nom</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>스테이지의 정보를 받아 오브젝트와 그라운드 배치 정보</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mission_Time</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Spawn_Time</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Spawn_Time</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wave_Count</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Monster_Count</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>몬스터의 스폰 양만큼 받고 몬스터를 처치시 감소됨</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>웨이브의 최대치 만큼 받고 현재 웨이브 비교 함</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -847,251 +1111,135 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>각 웨이브당 할당된 정보</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 0초 가 되어 패배하게 되는 미션의 경우 0초가 되고 게임오버 UI가 뜬다면 조작을 불가능 하게 전환함.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">   - 빠른전투, 진행이 핵심인 미션</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">   - 적은 몬스터로 빠르게 진행이 가능하지만 그만큼 변신게이지가 손해</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">   - 유저에게 빠르게 진행하는 대신 보상을 일부 포기하는 선택을 제시</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>처치</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 제한 시간 내에 모든 몬스터 처치</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">   - 모든 몬스터 처치</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">   - 제한 시간 내에 모든 몬스터 처치</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">   - 웨이브마다 나오는 모든 몬스터를 처치해야 함.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">   - 처치 속도에 따라 변신 게이지 보상을 더 받을 수 있음.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">   - 빠른 처치와 시간내 계속되는 전투가 핵심.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">   - 유저에게 실력에 따라 변신 게이지 보상을 추가로 얻는 기회를 제시</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">   - 점점 대량으로 오는 적을 처치하는 것이 핵심</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">   - 적을 쫓기 보단 특정지역에서 적을 처치</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">   - 점점 늘어나는 적에게 어떻게 스킬을 사용하여 효율적인 퇴치 생각 유도</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">   - 자신의 스킬의 사용 대처에 따라 클리어 시간의 차이와 달성감 존재.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>보상</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>스테이지 클리어시 유저에게 주어지는 효과</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>4. 회복형 보상</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>이름</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>공격력</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>방어력</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>변신 회복율</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>적용 내용</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>등장 확률</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>비고</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 보상은 두가지 회복형과 지속형이 존재함.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 현재 스테이지의 보상은 다음 스테이지에서 적용됨.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 보상의 종류에 따라 유저에게 스테이지 선택에 대한 고민을 유도</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 같은 능력치가 적용 될시 합해지는게 아닌 덮어 쒸워짐.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>흐름도</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 미션 진행 흐름도</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2. 섬멸 미션</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>3. 생존 미션</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>4. 방어 미션</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>변신 게이지</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>변신 게이지 + 100</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>즉시</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>따로 시간은 없고 보상받을때 한번 적용</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  - 몬스터 스폰에 대한 정보는 "몬스터 스폰 테이블" 에서 받아옴.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>몬스터를 생성하는 좌표 정보</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>미션의 스폰될 몬스터의 수와 종류, 제한시간 의 정보</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>미션의 스폰될 몬스터의 수와 종류, 제한시간 의 정보</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>캐릭터, 몬스터가 스폰되는 위치</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Spawn_Nom</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Survive_Mon</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>생존미션에 사용할 몬스터의 정보와 스폰될 몬스터들의 정보</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>미션 테이블</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>미션 테이블</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>미션 테이블</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>몬스터 테이블</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>몬스터 테이블</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>몬스터 스폰 테이블</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>몬스터 스폰 테이블</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>사용되는 테이블</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Defense_Mon</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>방어미션에 사용할 몬스터의 정보와 스폰될 몬스터들의 정보</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>스테이지 테이블</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>스테이지의 좌표 정보와 오브젝트의 정보</t>
+    <t xml:space="preserve">    - 제한시간 0초</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   - 섬멸 미션은 Monster_Count 가 0이 되면 승리함.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   - Monster_Count 는 스폰될 몬스터의 수 만큼 갱신되고 몬스터 처치시 감소됨.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   - 제한 시간이 0이하가 되면 몬스터의 스폰도 정지되고 모든 몬스터는 처치됨.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   - Wave_Count 만큼 웨이브를 진행함</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.미션</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">        -섬멸</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">        -생존</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">        -방어</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">        -구출</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.보상</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.3 예외처리</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.2 시스템 룰</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    3.1 시스템 개요</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    3.4 회복형 보상</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    3.5 버프형 보상</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.흐름도</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.2 시스템 룰</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.3 예외처리</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.4 승리 조건</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.5 패배 조건</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">      1.6 UI</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>초안 제작</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">      4.1 미션 진행 흐름</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  4.2 섬멸 미션</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  4.3 생존 미션</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  4.4 방어 미션</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>미션 시스템 문서</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mission_Time</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   - 제한시간이 존재하고 Mission_Time에서 시간을 받아옴.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1, ui출력 내용추가</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2, 데이터를 어떻게 넘겨줄건지</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Annihilation_Mon</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1099,190 +1247,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>스테이지의 정보를 받아 오브젝트와 그라운드 배치 정보</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mission_Time</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Spawn_Time</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Spawn_Time</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Wave_Count</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Monster_Count</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>몬스터의 스폰 양만큼 받고 몬스터를 처치시 감소됨</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>웨이브의 최대치 만큼 받고 현재 웨이브 비교 함</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>웨이브 테이블</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">    - 제한시간 0초</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">   - 섬멸 미션은 Monster_Count 가 0이 되면 승리함.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">   - Monster_Count 는 스폰될 몬스터의 수 만큼 갱신되고 몬스터 처치시 감소됨.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">   - 제한 시간이 0이하가 되면 몬스터의 스폰도 정지되고 모든 몬스터는 처치됨.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">   - Wave_Count 만큼 웨이브를 진행함</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.미션</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">        -섬멸</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">        -생존</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">        -방어</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">        -구출</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.보상</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.3 예외처리</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 3.2 시스템 룰</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">    3.1 시스템 개요</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">    3.4 회복형 보상</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">    3.5 버프형 보상</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>4.흐름도</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1.2 시스템 룰</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.3 예외처리</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1.4 승리 조건</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1.5 패배 조건</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">      1.6 UI</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>초안 제작</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">      4.1 미션 진행 흐름</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  4.2 섬멸 미션</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  4.3 생존 미션</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  4.4 방어 미션</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>미션 시스템 문서</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mission_Time</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">   - 제한시간이 존재하고 Mission_Time에서 시간을 받아옴.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1, ui출력 내용추가</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2, 데이터를 어떻게 넘겨줄건지</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>수, 목, 금</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>17,18,19</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>리스폰 빨리하고, Ui기획서, 보상 내용 순으로 작업</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Annihilation_Mon</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Stage_Nom</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>몬스터 스폰 데이터</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1392,6 +1356,26 @@
   </si>
   <si>
     <t>몬스터 스폰 데이터</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 보상의 리스트와 효과 적용에 대한 설명</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 보상은 스테이지 하나당 하나의 보상만 받을 수 있음.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 모든 보상은 수치를 올려주는 보상임.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 능력치가 상승하는 보상의 경우 게임이 끝날때 까지 지속됨</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 같은 능력치가 적용 될시 합해짐.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -3566,7 +3550,7 @@
   <sheetData>
     <row r="2" spans="2:11" ht="31.5" x14ac:dyDescent="0.3">
       <c r="B2" s="9" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.3">
@@ -3603,7 +3587,7 @@
         <v>53</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="E6" s="2"/>
     </row>
@@ -3615,7 +3599,7 @@
         <v>53</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="E7" s="2"/>
     </row>
@@ -3624,10 +3608,10 @@
         <v>43669</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="E8" s="2"/>
     </row>
@@ -3766,7 +3750,7 @@
     </row>
     <row r="30" spans="2:11" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B30" s="10" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="K30" s="26"/>
     </row>
@@ -3779,32 +3763,32 @@
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B32" s="29" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="C32" s="29"/>
       <c r="K32" s="26"/>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B33" s="29" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="C33" s="29"/>
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B34" s="29" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="C34" s="29"/>
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B35" s="29" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="C35" s="29"/>
     </row>
     <row r="36" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B36" s="30" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="C36" s="30"/>
     </row>
@@ -3815,103 +3799,103 @@
     </row>
     <row r="38" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B38" s="30" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C38" s="30"/>
     </row>
     <row r="39" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B39" s="30" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C39" s="30"/>
     </row>
     <row r="40" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B40" s="26" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="C40" s="26"/>
     </row>
     <row r="41" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B41" s="26" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="C41" s="26"/>
     </row>
     <row r="42" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B42" s="26" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="C42" s="26"/>
     </row>
     <row r="43" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B43" s="26" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="C43" s="26"/>
     </row>
     <row r="44" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B44" s="8" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="C44" s="26"/>
     </row>
     <row r="45" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B45" s="29" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="C45" s="29"/>
     </row>
     <row r="46" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B46" s="29" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="C46" s="29"/>
     </row>
     <row r="47" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B47" s="29" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="C47" s="29"/>
     </row>
     <row r="48" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B48" s="29" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="C48" s="29"/>
     </row>
     <row r="49" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B49" s="29" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="C49" s="29"/>
     </row>
     <row r="50" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B50" s="8" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="C50" s="13"/>
     </row>
     <row r="51" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B51" s="13" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="C51" s="13"/>
     </row>
     <row r="52" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B52" s="29" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="C52" s="29"/>
     </row>
     <row r="53" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B53" s="29" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="C53" s="29"/>
     </row>
     <row r="54" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B54" s="29" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="C54" s="29"/>
     </row>
@@ -3984,7 +3968,7 @@
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>13</v>
@@ -4025,7 +4009,7 @@
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L11" s="11" t="s">
         <v>24</v>
@@ -4036,7 +4020,7 @@
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L12" s="11" t="s">
         <v>38</v>
@@ -4047,43 +4031,43 @@
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L13" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="M13" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="M13" s="2" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.3">
@@ -4093,22 +4077,22 @@
     </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="24" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="25" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
     </row>
     <row r="26" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="28" spans="2:2" x14ac:dyDescent="0.3">
@@ -4128,7 +4112,7 @@
     </row>
     <row r="31" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="33" spans="2:12" x14ac:dyDescent="0.3">
@@ -4148,17 +4132,17 @@
     </row>
     <row r="36" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="39" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B39" s="22" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="40" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B40" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="41" spans="2:12" x14ac:dyDescent="0.3">
@@ -4397,27 +4381,27 @@
     </row>
     <row r="59" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B59" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="60" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B60" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="61" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B61" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="62" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B62" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="65" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B65" s="22" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="66" spans="2:12" x14ac:dyDescent="0.3">
@@ -4656,7 +4640,7 @@
     </row>
     <row r="84" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B84" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C84" s="12"/>
       <c r="D84" s="12"/>
@@ -4671,37 +4655,37 @@
     </row>
     <row r="85" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B85" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="86" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B86" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="87" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B87" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="88" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B88" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="89" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B89" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
     </row>
     <row r="90" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B90" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
     </row>
     <row r="92" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B92" s="8" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="93" spans="2:12" x14ac:dyDescent="0.3">
@@ -4940,27 +4924,27 @@
     </row>
     <row r="111" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B111" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="112" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B112" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="113" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B113" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="114" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B114" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="117" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B117" s="8" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
     </row>
   </sheetData>
@@ -4975,8 +4959,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:P155"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N36" sqref="N36"/>
+    <sheetView showGridLines="0" topLeftCell="A85" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5054,7 +5038,7 @@
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B10" s="25" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="K10" s="11" t="s">
         <v>49</v>
@@ -5065,45 +5049,45 @@
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B11" s="25" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="K11" s="11" t="s">
         <v>38</v>
       </c>
       <c r="L11" s="11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B12" s="25" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="K12" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="L12" s="2" t="s">
         <v>117</v>
-      </c>
-      <c r="L12" s="2" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B13" s="25" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="K13" s="11" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B14" s="25" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B15" s="25" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.3">
@@ -5133,262 +5117,262 @@
     </row>
     <row r="23" spans="2:16" x14ac:dyDescent="0.3">
       <c r="K23" s="23" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="L23" s="24"/>
       <c r="P23" s="1" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="24" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B24" s="8" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="K24" s="5" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="L24" s="6" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="M24" s="6" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="N24" s="6" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="25" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="L25" s="2" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="N25" s="1" t="s">
-        <v>337</v>
+        <v>328</v>
       </c>
     </row>
     <row r="26" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="L26" s="2" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="M26" s="2" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="N26" s="1" t="s">
-        <v>337</v>
+        <v>328</v>
       </c>
     </row>
     <row r="27" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="L27" s="2" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="M27" s="2" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="N27" s="1" t="s">
-        <v>338</v>
+        <v>329</v>
       </c>
     </row>
     <row r="28" spans="2:16" x14ac:dyDescent="0.3">
       <c r="K28" s="1" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="L28" s="2" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="M28" s="2" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="N28" s="1" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
     </row>
     <row r="29" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B29" s="8" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="L29" s="2" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="M29" s="2" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="N29" s="1" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
     </row>
     <row r="30" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="L30" s="2" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="M30" s="2" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="N30" s="1" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
     </row>
     <row r="31" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="L31" s="2" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="M31" s="2" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="N31" s="1" t="s">
-        <v>340</v>
+        <v>331</v>
       </c>
     </row>
     <row r="32" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="33" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="34" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="K34" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="35" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="K35" s="5" t="s">
         <v>11</v>
       </c>
       <c r="L35" s="6" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="M35" s="6" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="36" spans="2:13" x14ac:dyDescent="0.3">
       <c r="K36" s="1" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="L36" s="2" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="M36" s="1"/>
     </row>
     <row r="37" spans="2:13" x14ac:dyDescent="0.3">
       <c r="K37" s="1" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="L37" s="2" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="M37" s="1"/>
     </row>
     <row r="38" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B38" s="8" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="L38" s="2" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="M38" s="1"/>
     </row>
     <row r="39" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="K39" s="28" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="L39" s="2" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="M39" s="1"/>
     </row>
     <row r="40" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B40" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="42" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B42" s="8" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="43" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B43" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
     </row>
     <row r="44" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B44" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="46" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B46" s="8" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="47" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B47" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="48" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B48" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="56" spans="2:16" x14ac:dyDescent="0.3">
       <c r="K56" s="23" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="L56" s="24"/>
       <c r="P56" s="1" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="57" spans="2:16" x14ac:dyDescent="0.3">
@@ -5396,27 +5380,27 @@
         <v>11</v>
       </c>
       <c r="L57" s="6" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="M57" s="6" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="N57" s="6" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="58" spans="2:16" x14ac:dyDescent="0.3">
       <c r="K58" s="1" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="L58" s="2" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="M58" s="2" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="N58" s="1" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
     </row>
     <row r="59" spans="2:16" ht="20.25" x14ac:dyDescent="0.3">
@@ -5424,202 +5408,202 @@
         <v>32</v>
       </c>
       <c r="K59" s="1" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="L59" s="2" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="M59" s="2" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="N59" s="1" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
     </row>
     <row r="60" spans="2:16" x14ac:dyDescent="0.3">
       <c r="K60" s="1" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="L60" s="2" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="M60" s="2" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="N60" s="1" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
     <row r="61" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B61" s="8" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="K61" s="1" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="L61" s="2" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="M61" s="2" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="N61" s="1" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
     <row r="62" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B62" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="K62" s="1" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="L62" s="2" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="M62" s="2" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="N62" s="1" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
     </row>
     <row r="63" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B63" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="K63" s="1" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="L63" s="2" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="M63" s="2" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="N63" s="1" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
     </row>
     <row r="64" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B64" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
     </row>
     <row r="66" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B66" s="8" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="K66" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="67" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B67" s="25" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="K67" s="5" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="L67" s="6" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="M67" s="6" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="68" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B68" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="K68" s="1" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="L68" s="2" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="M68" s="1"/>
     </row>
     <row r="69" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B69" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="K69" s="1" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="L69" s="2" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="M69" s="1"/>
     </row>
     <row r="70" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B70" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="K70" s="1" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="L70" s="2" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="M70" s="1"/>
     </row>
     <row r="71" spans="2:13" x14ac:dyDescent="0.3">
       <c r="K71" s="28" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="L71" s="2" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="M71" s="1"/>
     </row>
     <row r="73" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B73" s="8" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
     <row r="74" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B74" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="75" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B75" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="77" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B77" s="8" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="78" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B78" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="80" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B80" s="8" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
     </row>
     <row r="81" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B81" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
     </row>
     <row r="82" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B82" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="89" spans="2:16" x14ac:dyDescent="0.3">
       <c r="K89" s="23" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="L89" s="24"/>
       <c r="P89" s="1" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="90" spans="2:16" x14ac:dyDescent="0.3">
@@ -5627,27 +5611,27 @@
         <v>11</v>
       </c>
       <c r="L90" s="6" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="M90" s="6" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="N90" s="6" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="91" spans="2:16" x14ac:dyDescent="0.3">
       <c r="K91" s="1" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="L91" s="2" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="M91" s="2" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="N91" s="1" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
     </row>
     <row r="92" spans="2:16" ht="20.25" x14ac:dyDescent="0.3">
@@ -5655,224 +5639,224 @@
         <v>33</v>
       </c>
       <c r="K92" s="1" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="L92" s="2" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="M92" s="2" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="N92" s="1" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
     </row>
     <row r="93" spans="2:16" x14ac:dyDescent="0.3">
       <c r="K93" s="1" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="L93" s="2" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="M93" s="2" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="N93" s="1" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
     <row r="94" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B94" s="8" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="K94" s="1" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="L94" s="2" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="M94" s="2" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="N94" s="1" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
     </row>
     <row r="95" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B95" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="K95" s="1" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="L95" s="2" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="M95" s="2" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="N95" s="1" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
     </row>
     <row r="96" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B96" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="K96" s="1" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="L96" s="2" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="M96" s="2" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="N96" s="1" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
     <row r="97" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B97" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="K97" s="1" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="L97" s="2" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="M97" s="2" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="N97" s="1" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
     </row>
     <row r="98" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B98" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
     </row>
     <row r="100" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B100" s="8" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="101" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B101" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="K101" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
     </row>
     <row r="102" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B102" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="K102" s="5" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="L102" s="6" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="M102" s="6" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="103" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B103" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="K103" s="1" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="L103" s="2" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="M103" s="1"/>
     </row>
     <row r="104" spans="2:14" x14ac:dyDescent="0.3">
       <c r="K104" s="1" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="L104" s="2" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="M104" s="1"/>
     </row>
     <row r="105" spans="2:14" x14ac:dyDescent="0.3">
       <c r="K105" s="1" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="L105" s="2" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="M105" s="1"/>
     </row>
     <row r="106" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B106" s="8" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="K106" s="1" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="L106" s="2" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="M106" s="1"/>
     </row>
     <row r="107" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B107" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="K107" s="28" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="L107" s="2" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="M107" s="1"/>
     </row>
     <row r="108" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B108" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
     </row>
     <row r="109" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B109" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="111" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B111" s="8" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="112" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B112" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
     </row>
     <row r="114" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B114" s="8" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="115" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B115" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
     </row>
     <row r="116" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B116" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
     </row>
     <row r="117" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B117" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
     </row>
     <row r="132" spans="2:11" x14ac:dyDescent="0.3">
@@ -5887,7 +5871,7 @@
     </row>
     <row r="134" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C134" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="136" spans="2:11" x14ac:dyDescent="0.3">
@@ -5897,70 +5881,70 @@
     </row>
     <row r="137" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C137" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="138" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C138" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="139" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C139" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="140" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C140" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="141" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C141" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K141" s="1" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="142" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C142" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="143" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C143" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="145" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C145" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="146" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C146" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
     </row>
     <row r="147" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C147" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="149" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C149" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="150" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C150" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="151" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C151" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="153" spans="3:3" x14ac:dyDescent="0.3">
@@ -5975,7 +5959,7 @@
     </row>
     <row r="155" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C155" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -5990,8 +5974,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:L35"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6005,7 +5989,7 @@
   <sheetData>
     <row r="2" spans="2:12" ht="26.25" x14ac:dyDescent="0.3">
       <c r="B2" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.3">
@@ -6015,15 +5999,15 @@
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K5" t="s">
-        <v>336</v>
+        <v>327</v>
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K6" s="5" t="s">
         <v>11</v>
@@ -6034,32 +6018,32 @@
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>136</v>
+        <v>332</v>
       </c>
       <c r="K7" s="11" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="K8" s="11" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.3">
       <c r="K9" s="11" t="s">
-        <v>324</v>
+        <v>315</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.3">
@@ -6067,40 +6051,40 @@
         <v>10</v>
       </c>
       <c r="K10" s="11" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>327</v>
+        <v>318</v>
       </c>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
-        <v>138</v>
+        <v>333</v>
       </c>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
-        <v>139</v>
+        <v>334</v>
       </c>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
-        <v>61</v>
+        <v>335</v>
       </c>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.3">
@@ -6110,117 +6094,104 @@
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
-        <v>235</v>
+        <v>336</v>
       </c>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
-        <v>236</v>
+        <v>56</v>
       </c>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B24" s="8" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="K24" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B25" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="C25" s="6" t="s">
         <v>225</v>
       </c>
-      <c r="C25" s="6" t="s">
-        <v>229</v>
-      </c>
       <c r="D25" s="6" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="K25" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B26" s="1" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
     </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="K28" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="K29" t="s">
-        <v>309</v>
-      </c>
-    </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B30" s="8" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B31" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="C31" s="6" t="s">
         <v>225</v>
       </c>
-      <c r="C31" s="6" t="s">
-        <v>229</v>
-      </c>
       <c r="D31" s="6" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B32" s="1" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B33" s="1" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
-      <c r="K33" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B34" s="1" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>335</v>
+        <v>326</v>
       </c>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
     </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B35" s="28" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>334</v>
+        <v>325</v>
       </c>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
@@ -6247,22 +6218,22 @@
   <sheetData>
     <row r="2" spans="2:2" ht="31.5" x14ac:dyDescent="0.3">
       <c r="B2" s="9" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
     <row r="5" spans="2:2" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B5" s="27" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
     </row>
     <row r="27" spans="2:2" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B27" s="27" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
     </row>
     <row r="72" spans="2:2" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B72" s="27" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
     </row>
     <row r="73" spans="2:2" ht="20.25" x14ac:dyDescent="0.3">
@@ -6360,12 +6331,12 @@
     </row>
     <row r="108" spans="2:2" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B108" s="27" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
     </row>
     <row r="157" spans="2:2" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B157" s="27" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
     </row>
   </sheetData>
@@ -6392,7 +6363,7 @@
   <sheetData>
     <row r="2" spans="2:13" ht="26.25" x14ac:dyDescent="0.3">
       <c r="B2" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.3">
@@ -6402,12 +6373,12 @@
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="L6" s="5" t="s">
         <v>11</v>
@@ -6418,29 +6389,29 @@
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="L7" s="11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.3">
       <c r="L8" s="11" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.3">
       <c r="L9" s="11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.3">
@@ -6450,37 +6421,37 @@
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.3">
@@ -6490,7 +6461,7 @@
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.3">
@@ -6500,37 +6471,37 @@
     </row>
     <row r="24" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B24" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="25" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="26" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="27" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="28" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="29" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="31" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>
